--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2802,28 +2802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.9309720192362</v>
+        <v>283.3791918551527</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.59833797597</v>
+        <v>387.7319121038324</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.0921106324146</v>
+        <v>350.7273225977983</v>
       </c>
       <c r="AD2" t="n">
-        <v>248930.9720192362</v>
+        <v>283379.1918551527</v>
       </c>
       <c r="AE2" t="n">
-        <v>340598.33797597</v>
+        <v>387731.9121038324</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768486531319331e-06</v>
+        <v>5.432892927665584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.064583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>308092.1106324146</v>
+        <v>350727.3225977983</v>
       </c>
     </row>
     <row r="3">
@@ -2908,28 +2908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.8875635706177</v>
+        <v>119.0690478155638</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.4070594393266</v>
+        <v>162.9155241768386</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.1022453455116</v>
+        <v>147.3670952028203</v>
       </c>
       <c r="AD3" t="n">
-        <v>101887.5635706177</v>
+        <v>119069.0478155638</v>
       </c>
       <c r="AE3" t="n">
-        <v>139407.0594393266</v>
+        <v>162915.5241768386</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.771517471517861e-06</v>
+        <v>9.762255768947562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>126102.2453455116</v>
+        <v>147367.0952028203</v>
       </c>
     </row>
     <row r="4">
@@ -3014,28 +3014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.5314847322111</v>
+        <v>96.79822032317786</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.8184860920439</v>
+        <v>132.4435954822051</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.43300250715146</v>
+        <v>119.8033646151725</v>
       </c>
       <c r="AD4" t="n">
-        <v>79531.4847322111</v>
+        <v>96798.22032317785</v>
       </c>
       <c r="AE4" t="n">
-        <v>108818.4860920439</v>
+        <v>132443.5954822051</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.817362932304029e-06</v>
+        <v>1.127001395253515e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>98433.00250715145</v>
+        <v>119803.3646151725</v>
       </c>
     </row>
     <row r="5">
@@ -3120,28 +3120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.94286568666675</v>
+        <v>91.2096012776335</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.1718909614625</v>
+        <v>124.7970003516237</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.51618768376662</v>
+        <v>112.8865497917876</v>
       </c>
       <c r="AD5" t="n">
-        <v>73942.86568666674</v>
+        <v>91209.6012776335</v>
       </c>
       <c r="AE5" t="n">
-        <v>101171.8909614625</v>
+        <v>124797.0003516237</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.349841092698716e-06</v>
+        <v>1.203766876772481e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.639583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>91516.18768376662</v>
+        <v>112886.5497917876</v>
       </c>
     </row>
     <row r="6">
@@ -3226,28 +3226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.38107353204175</v>
+        <v>87.4772169224163</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.2984898003272</v>
+        <v>119.6901874156416</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.10789708958706</v>
+        <v>108.267123914957</v>
       </c>
       <c r="AD6" t="n">
-        <v>70381.07353204176</v>
+        <v>87477.21692241631</v>
       </c>
       <c r="AE6" t="n">
-        <v>96298.48980032721</v>
+        <v>119690.1874156416</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.690918884206326e-06</v>
+        <v>1.252938848222164e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.497916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>87107.89708958706</v>
+        <v>108267.123914957</v>
       </c>
     </row>
     <row r="7">
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.76904425148128</v>
+        <v>84.86518764185583</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.72459610406712</v>
+        <v>116.1162937193815</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.87509079170559</v>
+        <v>105.0343176170755</v>
       </c>
       <c r="AD7" t="n">
-        <v>67769.04425148127</v>
+        <v>84865.18764185582</v>
       </c>
       <c r="AE7" t="n">
-        <v>92724.59610406712</v>
+        <v>116116.2937193815</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.917769168977215e-06</v>
+        <v>1.285643046513121e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.408333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>83875.09079170559</v>
+        <v>105034.3176170755</v>
       </c>
     </row>
     <row r="8">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.90376945641842</v>
+        <v>82.99991284679298</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.17244483934721</v>
+        <v>113.5641424546616</v>
       </c>
       <c r="AC8" t="n">
-        <v>81.56651326172292</v>
+        <v>102.7257400870929</v>
       </c>
       <c r="AD8" t="n">
-        <v>65903.76945641842</v>
+        <v>82999.91284679298</v>
       </c>
       <c r="AE8" t="n">
-        <v>90172.44483934721</v>
+        <v>113564.1424546616</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073573737552973e-06</v>
+        <v>1.308104836721958e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AH8" t="n">
-        <v>81566.51326172292</v>
+        <v>102725.7400870929</v>
       </c>
     </row>
     <row r="9">
@@ -3544,28 +3544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>66.03691968768986</v>
+        <v>83.13306307806441</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.35462685994632</v>
+        <v>113.7463244752606</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.73130808597017</v>
+        <v>102.8905349113402</v>
       </c>
       <c r="AD9" t="n">
-        <v>66036.91968768986</v>
+        <v>83133.06307806441</v>
       </c>
       <c r="AE9" t="n">
-        <v>90354.62685994632</v>
+        <v>113746.3244752607</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.068176013735276e-06</v>
+        <v>1.307326666087383e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.352083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>81731.30808597017</v>
+        <v>102890.5349113402</v>
       </c>
     </row>
   </sheetData>
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6648039473619</v>
+        <v>187.83182326635</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.5651610253549</v>
+        <v>256.9997871481092</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.3238544293243</v>
+        <v>232.4720881642352</v>
       </c>
       <c r="AD2" t="n">
-        <v>162664.8039473619</v>
+        <v>187831.82326635</v>
       </c>
       <c r="AE2" t="n">
-        <v>222565.1610253549</v>
+        <v>256999.7871481092</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898110196785304e-06</v>
+        <v>7.170649066317069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.418749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>201323.8544293243</v>
+        <v>232472.0881642352</v>
       </c>
     </row>
     <row r="3">
@@ -3947,28 +3947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.31698729681894</v>
+        <v>104.0665830608042</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4709541730671</v>
+        <v>142.3884900373536</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.068813985358</v>
+        <v>128.7991323917279</v>
       </c>
       <c r="AD3" t="n">
-        <v>87316.98729681893</v>
+        <v>104066.5830608042</v>
       </c>
       <c r="AE3" t="n">
-        <v>119470.9541730671</v>
+        <v>142388.4900373536</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.672086149678781e-06</v>
+        <v>1.12316455072825e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.097916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108068.8139853581</v>
+        <v>128799.1323917279</v>
       </c>
     </row>
     <row r="4">
@@ -4053,28 +4053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.50422404544449</v>
+        <v>86.33907115545034</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.09874564889627</v>
+        <v>118.132926165832</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.0226548361168</v>
+        <v>106.8584854931989</v>
       </c>
       <c r="AD4" t="n">
-        <v>69504.22404544448</v>
+        <v>86339.07115545034</v>
       </c>
       <c r="AE4" t="n">
-        <v>95098.74564889626</v>
+        <v>118132.926165832</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.608214370983292e-06</v>
+        <v>1.260210200710887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.652083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>86022.6548361168</v>
+        <v>106858.4854931989</v>
       </c>
     </row>
     <row r="5">
@@ -4159,28 +4159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.98430455278098</v>
+        <v>81.64855946219461</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.91439239426241</v>
+        <v>111.7151611363513</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.42852757630891</v>
+        <v>101.05322295074</v>
       </c>
       <c r="AD5" t="n">
-        <v>64984.30455278098</v>
+        <v>81648.55946219461</v>
       </c>
       <c r="AE5" t="n">
-        <v>88914.39239426241</v>
+        <v>111715.1611363512</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.100198572410459e-06</v>
+        <v>1.332234837006776e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.454166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>80428.52757630892</v>
+        <v>101053.22295074</v>
       </c>
     </row>
     <row r="6">
@@ -4265,28 +4265,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.46558940040538</v>
+        <v>79.12984430981902</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.46817520491363</v>
+        <v>108.2689439470025</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.31121251871431</v>
+        <v>97.93590789314534</v>
       </c>
       <c r="AD6" t="n">
-        <v>62465.58940040538</v>
+        <v>79129.84430981902</v>
       </c>
       <c r="AE6" t="n">
-        <v>85468.17520491364</v>
+        <v>108268.9439470025</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.362489536238806e-06</v>
+        <v>1.370633247400106e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.358333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>77311.21251871431</v>
+        <v>97935.90789314534</v>
       </c>
     </row>
     <row r="7">
@@ -4371,28 +4371,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.53709083764245</v>
+        <v>79.20134574705608</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.56600662576213</v>
+        <v>108.366775367851</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.39970704606429</v>
+        <v>98.02440242049535</v>
       </c>
       <c r="AD7" t="n">
-        <v>62537.09083764245</v>
+        <v>79201.34574705608</v>
       </c>
       <c r="AE7" t="n">
-        <v>85566.00662576212</v>
+        <v>108366.775367851</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.348454404112202e-06</v>
+        <v>1.368578556855469e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.3625</v>
       </c>
       <c r="AH7" t="n">
-        <v>77399.70704606429</v>
+        <v>98024.40242049535</v>
       </c>
     </row>
   </sheetData>
@@ -4668,28 +4668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.54307289347867</v>
+        <v>85.99239901593758</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.52014447355251</v>
+        <v>117.6585940504555</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.30839735189406</v>
+        <v>106.4294229691845</v>
       </c>
       <c r="AD2" t="n">
-        <v>70543.07289347866</v>
+        <v>85992.39901593758</v>
       </c>
       <c r="AE2" t="n">
-        <v>96520.1444735525</v>
+        <v>117658.5940504555</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575581256774105e-06</v>
+        <v>1.326748271322253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.091666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87308.39735189406</v>
+        <v>106429.4229691845</v>
       </c>
     </row>
     <row r="3">
@@ -4774,28 +4774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.72273093446007</v>
+        <v>69.25730840293956</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.50581054411963</v>
+        <v>94.76090477367183</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.49051915185841</v>
+        <v>85.71705701986102</v>
       </c>
       <c r="AD3" t="n">
-        <v>53722.73093446007</v>
+        <v>69257.30840293955</v>
       </c>
       <c r="AE3" t="n">
-        <v>73505.81054411962</v>
+        <v>94760.90477367182</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.974308338675875e-06</v>
+        <v>1.543148615788569e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.516666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>66490.5191518584</v>
+        <v>85717.05701986102</v>
       </c>
     </row>
   </sheetData>
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.59904107907813</v>
+        <v>113.5780967597399</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.59336083506</v>
+        <v>155.4025626986002</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8932225378566</v>
+        <v>140.571160223555</v>
       </c>
       <c r="AD2" t="n">
-        <v>89599.04107907813</v>
+        <v>113578.0967597399</v>
       </c>
       <c r="AE2" t="n">
-        <v>122593.36083506</v>
+        <v>155402.5626986002</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.061124945999213e-06</v>
+        <v>1.06714355412858e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.754166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>110893.2225378566</v>
+        <v>140571.160223555</v>
       </c>
     </row>
     <row r="3">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.14183401809917</v>
+        <v>76.18476504158811</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.28871057399166</v>
+        <v>104.2393565644835</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.43519152975986</v>
+        <v>94.29089867485128</v>
       </c>
       <c r="AD3" t="n">
-        <v>60141.83401809917</v>
+        <v>76184.76504158811</v>
       </c>
       <c r="AE3" t="n">
-        <v>82288.71057399166</v>
+        <v>104239.3565644835</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.349586726923666e-06</v>
+        <v>1.412997402780108e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.589583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>74435.19152975986</v>
+        <v>94290.89867485128</v>
       </c>
     </row>
     <row r="4">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.65298350052817</v>
+        <v>72.52532232342492</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.51511137863153</v>
+        <v>99.2323455942765</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.11717794181483</v>
+        <v>89.76174980425522</v>
       </c>
       <c r="AD4" t="n">
-        <v>56652.98350052817</v>
+        <v>72525.32232342492</v>
       </c>
       <c r="AE4" t="n">
-        <v>77515.11137863153</v>
+        <v>99232.3455942765</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.837888568386675e-06</v>
+        <v>1.486794165558199e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>70117.17794181484</v>
+        <v>89761.74980425522</v>
       </c>
     </row>
   </sheetData>
@@ -5580,28 +5580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.15265999391608</v>
+        <v>67.27028326819818</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.3575702166271</v>
+        <v>92.04216932295793</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.54730386614685</v>
+        <v>83.25779386479323</v>
       </c>
       <c r="AD2" t="n">
-        <v>52152.65999391608</v>
+        <v>67270.28326819818</v>
       </c>
       <c r="AE2" t="n">
-        <v>71357.57021662709</v>
+        <v>92042.16932295793</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800012269150273e-06</v>
+        <v>1.548880169660147e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>64547.30386614685</v>
+        <v>83257.79386479323</v>
       </c>
     </row>
     <row r="3">
@@ -5686,28 +5686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.76305952545979</v>
+        <v>66.88068279974189</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.82450166772588</v>
+        <v>91.50910077405671</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.06511063138618</v>
+        <v>82.77560063003256</v>
       </c>
       <c r="AD3" t="n">
-        <v>51763.05952545979</v>
+        <v>66880.68279974189</v>
       </c>
       <c r="AE3" t="n">
-        <v>70824.50166772588</v>
+        <v>91509.1007740567</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.910022579454835e-06</v>
+        <v>1.566267167085168e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.677083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>64065.11063138618</v>
+        <v>82775.60063003255</v>
       </c>
     </row>
   </sheetData>
@@ -5983,28 +5983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.3631305350457</v>
+        <v>210.174520290235</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.3078157901323</v>
+        <v>287.5700509063994</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.2777365288386</v>
+        <v>260.1247688550787</v>
       </c>
       <c r="AD2" t="n">
-        <v>176363.1305350458</v>
+        <v>210174.520290235</v>
       </c>
       <c r="AE2" t="n">
-        <v>241307.8157901323</v>
+        <v>287570.0509063994</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.600457510359713e-06</v>
+        <v>6.706943927059474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.772916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>218277.7365288386</v>
+        <v>260124.7688550787</v>
       </c>
     </row>
     <row r="3">
@@ -6089,28 +6089,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.0722336821717</v>
+        <v>107.9353476410316</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.6090479472823</v>
+        <v>147.6819044138655</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.7165353011237</v>
+        <v>133.5873507295009</v>
       </c>
       <c r="AD3" t="n">
-        <v>91072.2336821717</v>
+        <v>107935.3476410315</v>
       </c>
       <c r="AE3" t="n">
-        <v>124609.0479472823</v>
+        <v>147681.9044138654</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.40619817662591e-06</v>
+        <v>1.079739477464191e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.20625</v>
       </c>
       <c r="AH3" t="n">
-        <v>112716.5353011237</v>
+        <v>133587.3507295009</v>
       </c>
     </row>
     <row r="4">
@@ -6195,28 +6195,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.01718552820266</v>
+        <v>88.96555083308311</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.53709041364051</v>
+        <v>121.7265915328728</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.13284880226213</v>
+        <v>110.1091764813516</v>
       </c>
       <c r="AD4" t="n">
-        <v>72017.18552820267</v>
+        <v>88965.55083308311</v>
       </c>
       <c r="AE4" t="n">
-        <v>98537.09041364052</v>
+        <v>121726.5915328728</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.398078352461592e-06</v>
+        <v>1.224344328323289e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.710416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>89132.84880226213</v>
+        <v>110109.1764813515</v>
       </c>
     </row>
     <row r="5">
@@ -6301,28 +6301,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.32698933716047</v>
+        <v>84.27535464204091</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.11975706820731</v>
+        <v>115.3092581874397</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.32797674453111</v>
+        <v>104.3043044236206</v>
       </c>
       <c r="AD5" t="n">
-        <v>67326.98933716047</v>
+        <v>84275.35464204091</v>
       </c>
       <c r="AE5" t="n">
-        <v>92119.75706820731</v>
+        <v>115309.2581874397</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.890279446954239e-06</v>
+        <v>1.296101651027947e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.504166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>83327.97674453112</v>
+        <v>104304.3044236205</v>
       </c>
     </row>
     <row r="6">
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.17180638442525</v>
+        <v>80.94957948871347</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.80269655542926</v>
+        <v>110.7587858998147</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.42293042805875</v>
+        <v>100.1881228244971</v>
       </c>
       <c r="AD6" t="n">
-        <v>64171.80638442525</v>
+        <v>80949.57948871347</v>
       </c>
       <c r="AE6" t="n">
-        <v>87802.69655542927</v>
+        <v>110758.7858998147</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.191044078076911e-06</v>
+        <v>1.339949714218183e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.389583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>79422.93042805875</v>
+        <v>100188.1228244971</v>
       </c>
     </row>
     <row r="7">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.30356530015925</v>
+        <v>80.08133840444748</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.61473079984387</v>
+        <v>109.5708201442294</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.34834245686562</v>
+        <v>99.11353485330403</v>
       </c>
       <c r="AD7" t="n">
-        <v>63303.56530015925</v>
+        <v>80081.33840444748</v>
       </c>
       <c r="AE7" t="n">
-        <v>86614.73079984386</v>
+        <v>109570.8201442294</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.278087845015446e-06</v>
+        <v>1.352639705653646e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.358333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>78348.34245686562</v>
+        <v>99113.53485330404</v>
       </c>
     </row>
   </sheetData>
@@ -6810,28 +6810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.608346975358</v>
+        <v>65.4790709374454</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.24457301435503</v>
+        <v>89.59135358931231</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.63596815124875</v>
+        <v>81.04088054502446</v>
       </c>
       <c r="AD2" t="n">
-        <v>50608.346975358</v>
+        <v>65479.0709374454</v>
       </c>
       <c r="AE2" t="n">
-        <v>69244.57301435503</v>
+        <v>89591.3535893123</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.743670694961352e-06</v>
+        <v>1.561164921894925e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.827083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>62635.96815124874</v>
+        <v>81040.88054502447</v>
       </c>
     </row>
   </sheetData>
@@ -7107,28 +7107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4998369688467</v>
+        <v>146.0288832341729</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.2414371352074</v>
+        <v>199.8031603805571</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.3755876963916</v>
+        <v>180.7342271793902</v>
       </c>
       <c r="AD2" t="n">
-        <v>121499.8369688467</v>
+        <v>146028.8832341729</v>
       </c>
       <c r="AE2" t="n">
-        <v>166241.4371352074</v>
+        <v>199803.1603805571</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.891190937856725e-06</v>
+        <v>8.747494787067354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.497916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>150375.5876963916</v>
+        <v>180734.2271793902</v>
       </c>
     </row>
     <row r="3">
@@ -7213,28 +7213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.52845603927487</v>
+        <v>85.99488168322044</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.13190093189507</v>
+        <v>117.6619909453594</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.05264582543995</v>
+        <v>106.4324956692064</v>
       </c>
       <c r="AD3" t="n">
-        <v>69528.45603927487</v>
+        <v>85994.88168322045</v>
       </c>
       <c r="AE3" t="n">
-        <v>95131.90093189507</v>
+        <v>117661.9909453594</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.411055811666533e-06</v>
+        <v>1.248909900262937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.852083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86052.64582543995</v>
+        <v>106432.4956692064</v>
       </c>
     </row>
     <row r="4">
@@ -7319,28 +7319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.99410292629105</v>
+        <v>78.28993636964444</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.8230666105155</v>
+        <v>107.119744849133</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.72767218314972</v>
+        <v>96.89638674426513</v>
       </c>
       <c r="AD4" t="n">
-        <v>61994.10292629105</v>
+        <v>78289.93636964443</v>
       </c>
       <c r="AE4" t="n">
-        <v>84823.0666105155</v>
+        <v>107119.744849133</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.330310478701189e-06</v>
+        <v>1.385404804140529e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.470833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>76727.67218314973</v>
+        <v>96896.38674426512</v>
       </c>
     </row>
     <row r="5">
@@ -7425,28 +7425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.43778990178001</v>
+        <v>75.7336233451334</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.32540635380998</v>
+        <v>103.6220845924275</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.56382371234605</v>
+        <v>93.73253827346146</v>
       </c>
       <c r="AD5" t="n">
-        <v>59437.78990178001</v>
+        <v>75733.6233451334</v>
       </c>
       <c r="AE5" t="n">
-        <v>81325.40635380999</v>
+        <v>103622.0845924275</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.626829194877624e-06</v>
+        <v>1.429433183994143e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.364583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>73563.82371234606</v>
+        <v>93732.53827346145</v>
       </c>
     </row>
     <row r="6">
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.58987508093392</v>
+        <v>75.88570852428731</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.53349600545285</v>
+        <v>103.8301742440703</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.75205357969186</v>
+        <v>93.92076814080725</v>
       </c>
       <c r="AD6" t="n">
-        <v>59589.87508093393</v>
+        <v>75885.70852428731</v>
       </c>
       <c r="AE6" t="n">
-        <v>81533.49600545285</v>
+        <v>103830.1742440703</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.626207236374893e-06</v>
+        <v>1.429340832908976e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.364583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73752.05357969186</v>
+        <v>93920.76814080725</v>
       </c>
     </row>
   </sheetData>
@@ -7828,28 +7828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.9462110343995</v>
+        <v>174.9364780533188</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.16302109713</v>
+        <v>239.355806925169</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.5825503117869</v>
+        <v>216.512024650285</v>
       </c>
       <c r="AD2" t="n">
-        <v>149946.2110343995</v>
+        <v>174936.4780533187</v>
       </c>
       <c r="AE2" t="n">
-        <v>205163.0210971301</v>
+        <v>239355.806925169</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.227393915612158e-06</v>
+        <v>7.686582068724827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.070833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>185582.5503117869</v>
+        <v>216512.024650285</v>
       </c>
     </row>
     <row r="3">
@@ -7934,28 +7934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.29142242121027</v>
+        <v>100.9231833184829</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.3312428317596</v>
+        <v>138.0875518329024</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.3241908843422</v>
+        <v>124.9086696931035</v>
       </c>
       <c r="AD3" t="n">
-        <v>84291.42242121027</v>
+        <v>100923.1833184829</v>
       </c>
       <c r="AE3" t="n">
-        <v>115331.2428317596</v>
+        <v>138087.5518329024</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.891670693305834e-06</v>
+        <v>1.160424781883732e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.020833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104324.1908843422</v>
+        <v>124908.6696931035</v>
       </c>
     </row>
     <row r="4">
@@ -8040,28 +8040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.17417934895551</v>
+        <v>83.89119159224867</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.91067570084448</v>
+        <v>114.7836293546366</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.13884980942179</v>
+        <v>103.8288408688953</v>
       </c>
       <c r="AD4" t="n">
-        <v>67174.1793489555</v>
+        <v>83891.19159224868</v>
       </c>
       <c r="AE4" t="n">
-        <v>91910.67570084448</v>
+        <v>114783.6293546366</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.820236965037477e-06</v>
+        <v>1.296965110949009e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.597916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>83138.84980942178</v>
+        <v>103828.8408688953</v>
       </c>
     </row>
     <row r="5">
@@ -8146,28 +8146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.66724265324806</v>
+        <v>79.21366269594904</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.7440860817665</v>
+        <v>108.3836279607117</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.56079084872374</v>
+        <v>98.03964662554624</v>
       </c>
       <c r="AD5" t="n">
-        <v>62667.24265324806</v>
+        <v>79213.66269594904</v>
       </c>
       <c r="AE5" t="n">
-        <v>85744.08608176649</v>
+        <v>108383.6279607117</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.325121070782949e-06</v>
+        <v>1.371205414562188e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.404166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>77560.79084872374</v>
+        <v>98039.64662554624</v>
       </c>
     </row>
     <row r="6">
@@ -8252,28 +8252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.38832108953003</v>
+        <v>77.93474113223101</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.99420917625102</v>
+        <v>106.6337510551963</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.97791973910246</v>
+        <v>96.45677551592496</v>
       </c>
       <c r="AD6" t="n">
-        <v>61388.32108953003</v>
+        <v>77934.74113223101</v>
       </c>
       <c r="AE6" t="n">
-        <v>83994.20917625102</v>
+        <v>106633.7510551963</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4465431082842e-06</v>
+        <v>1.38905982674677e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.360416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>75977.91973910246</v>
+        <v>96456.77551592496</v>
       </c>
     </row>
   </sheetData>
@@ -8549,28 +8549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.0808582654216</v>
+        <v>253.4088390987378</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.7560954439442</v>
+        <v>346.7251532636942</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.1477944051849</v>
+        <v>313.6341912681196</v>
       </c>
       <c r="AD2" t="n">
-        <v>219080.8582654216</v>
+        <v>253408.8390987378</v>
       </c>
       <c r="AE2" t="n">
-        <v>299756.0954439442</v>
+        <v>346725.1532636942</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.034040011025165e-06</v>
+        <v>5.836338178739568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>271147.7944051849</v>
+        <v>313634.1912681196</v>
       </c>
     </row>
     <row r="3">
@@ -8655,28 +8655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.30815425714879</v>
+        <v>115.3868933277863</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5095537042469</v>
+        <v>157.8774379614727</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6721506840939</v>
+        <v>142.809836864849</v>
       </c>
       <c r="AD3" t="n">
-        <v>98308.15425714878</v>
+        <v>115386.8933277863</v>
       </c>
       <c r="AE3" t="n">
-        <v>134509.5537042469</v>
+        <v>157877.4379614727</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.963582718699985e-06</v>
+        <v>1.007472002530574e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>121672.1506840939</v>
+        <v>142809.836864849</v>
       </c>
     </row>
     <row r="4">
@@ -8761,28 +8761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.82166234239874</v>
+        <v>93.98565275905686</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.110787549378</v>
+        <v>128.595316459253</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.07916150960881</v>
+        <v>116.3223599410762</v>
       </c>
       <c r="AD4" t="n">
-        <v>76821.66234239873</v>
+        <v>93985.65275905686</v>
       </c>
       <c r="AE4" t="n">
-        <v>105110.787549378</v>
+        <v>128595.316459253</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.016171148653622e-06</v>
+        <v>1.15975760265968e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.820833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>95079.16150960881</v>
+        <v>116322.3599410762</v>
       </c>
     </row>
     <row r="5">
@@ -8867,28 +8867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.78928647392907</v>
+        <v>88.95327689058718</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.22526887338681</v>
+        <v>121.7097977832618</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.85078707216587</v>
+        <v>110.0939855036332</v>
       </c>
       <c r="AD5" t="n">
-        <v>71789.28647392907</v>
+        <v>88953.27689058718</v>
       </c>
       <c r="AE5" t="n">
-        <v>98225.26887338681</v>
+        <v>121709.7977832618</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.51084947756729e-06</v>
+        <v>1.23132630325123e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>88850.78707216587</v>
+        <v>110093.9855036332</v>
       </c>
     </row>
     <row r="6">
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.18122348653446</v>
+        <v>85.17462170260039</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.28855791753109</v>
+        <v>116.5396750525592</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.38522888121813</v>
+        <v>105.4172920300344</v>
       </c>
       <c r="AD6" t="n">
-        <v>68181.22348653447</v>
+        <v>85174.62170260039</v>
       </c>
       <c r="AE6" t="n">
-        <v>93288.5579175311</v>
+        <v>116539.6750525593</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.86141818628613e-06</v>
+        <v>1.282045620198393e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.45625</v>
       </c>
       <c r="AH6" t="n">
-        <v>84385.22888121812</v>
+        <v>105417.2920300344</v>
       </c>
     </row>
     <row r="7">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.78411445533396</v>
+        <v>82.77751267139989</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.00872758805747</v>
+        <v>113.2598447230856</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.41842095511761</v>
+        <v>102.4504841039339</v>
       </c>
       <c r="AD7" t="n">
-        <v>65784.11445533397</v>
+        <v>82777.51267139989</v>
       </c>
       <c r="AE7" t="n">
-        <v>90008.72758805747</v>
+        <v>113259.8447230856</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.079494274805446e-06</v>
+        <v>1.313596269121481e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>81418.42095511762</v>
+        <v>102450.484103934</v>
       </c>
     </row>
     <row r="8">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.11552709677197</v>
+        <v>82.1089253128379</v>
       </c>
       <c r="AB8" t="n">
-        <v>89.09393686808086</v>
+        <v>112.345054003109</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.59093657753843</v>
+        <v>101.6229997263547</v>
       </c>
       <c r="AD8" t="n">
-        <v>65115.52709677197</v>
+        <v>82108.92531283789</v>
       </c>
       <c r="AE8" t="n">
-        <v>89093.93686808085</v>
+        <v>112345.054003109</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.133314806429228e-06</v>
+        <v>1.321382875666222e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>80590.93657753844</v>
+        <v>101622.9997263548</v>
       </c>
     </row>
   </sheetData>
@@ -9482,28 +9482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.37599864039078</v>
+        <v>120.5780854854156</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8658931487102</v>
+        <v>164.9802560907722</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.2807973815757</v>
+        <v>149.2347720007582</v>
       </c>
       <c r="AD2" t="n">
-        <v>96375.99864039078</v>
+        <v>120578.0854854156</v>
       </c>
       <c r="AE2" t="n">
-        <v>131865.8931487102</v>
+        <v>164980.2560907722</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.668260966748314e-06</v>
+        <v>1.001362489613484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.970833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119280.7973815757</v>
+        <v>149234.7720007582</v>
       </c>
     </row>
     <row r="3">
@@ -9588,28 +9588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.1653873475375</v>
+        <v>79.35700581393516</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.42566962908585</v>
+        <v>108.5797563385923</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.17732501889567</v>
+        <v>98.21705678630985</v>
       </c>
       <c r="AD3" t="n">
-        <v>63165.3873475375</v>
+        <v>79357.00581393516</v>
       </c>
       <c r="AE3" t="n">
-        <v>86425.66962908585</v>
+        <v>108579.7563385923</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.026715228415547e-06</v>
+        <v>1.355527937378536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.670833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>78177.32501889567</v>
+        <v>98217.05678630985</v>
       </c>
     </row>
     <row r="4">
@@ -9694,28 +9694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.61581114089005</v>
+        <v>73.63683740669551</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.8324946331316</v>
+        <v>100.7531695677912</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.30883198746486</v>
+        <v>91.13742847222798</v>
       </c>
       <c r="AD4" t="n">
-        <v>57615.81114089004</v>
+        <v>73636.8374066955</v>
       </c>
       <c r="AE4" t="n">
-        <v>78832.4946331316</v>
+        <v>100753.1695677912</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.775852571969746e-06</v>
+        <v>1.468024739639961e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.389583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71308.83198746486</v>
+        <v>91137.42847222798</v>
       </c>
     </row>
     <row r="5">
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.73410436647161</v>
+        <v>73.75513063227706</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.99434864310101</v>
+        <v>100.9150235777606</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.45523887788636</v>
+        <v>91.2838353626495</v>
       </c>
       <c r="AD5" t="n">
-        <v>57734.10436647161</v>
+        <v>73755.13063227705</v>
       </c>
       <c r="AE5" t="n">
-        <v>78994.34864310101</v>
+        <v>100915.0235777606</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.768693688882056e-06</v>
+        <v>1.466949701181315e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.393749999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>71455.23887788635</v>
+        <v>91283.83536264949</v>
       </c>
     </row>
   </sheetData>
@@ -10097,28 +10097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.44947783750459</v>
+        <v>92.08061047564468</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.6015482901606</v>
+        <v>125.9887535625558</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.61852333056912</v>
+        <v>113.9645637489049</v>
       </c>
       <c r="AD2" t="n">
-        <v>76449.47783750459</v>
+        <v>92080.61047564467</v>
       </c>
       <c r="AE2" t="n">
-        <v>104601.5482901606</v>
+        <v>125988.7535625558</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.029066184592853e-06</v>
+        <v>1.23145541571755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>94618.52333056912</v>
+        <v>113964.5637489049</v>
       </c>
     </row>
     <row r="3">
@@ -10203,28 +10203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.73866225890051</v>
+        <v>70.28445404246898</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.89585260194517</v>
+        <v>96.16629075214276</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.7478975466218</v>
+        <v>86.98831493301876</v>
       </c>
       <c r="AD3" t="n">
-        <v>54738.66225890051</v>
+        <v>70284.45404246898</v>
       </c>
       <c r="AE3" t="n">
-        <v>74895.85260194517</v>
+        <v>96166.29075214276</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.936447906015811e-06</v>
+        <v>1.523999467128439e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>67747.8975466218</v>
+        <v>86988.31493301876</v>
       </c>
     </row>
     <row r="4">
@@ -10309,28 +10309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.93548748188062</v>
+        <v>70.48127926544909</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.1651575553424</v>
+        <v>96.43559570554001</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.99150041323877</v>
+        <v>87.23191779963574</v>
       </c>
       <c r="AD4" t="n">
-        <v>54935.48748188062</v>
+        <v>70481.27926544909</v>
       </c>
       <c r="AE4" t="n">
-        <v>75165.1575553424</v>
+        <v>96435.59570554001</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.926504995217777e-06</v>
+        <v>1.522474476417348e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.477083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>67991.50041323877</v>
+        <v>87231.91779963573</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.93169453414635</v>
+        <v>72.26821471432896</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.89645611069071</v>
+        <v>98.88055962072438</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.46212766786711</v>
+        <v>89.44353779028408</v>
       </c>
       <c r="AD2" t="n">
-        <v>56931.69453414634</v>
+        <v>72268.21471432896</v>
       </c>
       <c r="AE2" t="n">
-        <v>77896.45611069071</v>
+        <v>98880.55962072438</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.213221791079836e-06</v>
+        <v>1.439547731439452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.877083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70462.12766786711</v>
+        <v>89443.53779028408</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.72029005838863</v>
+        <v>68.05681023857126</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.13422671290913</v>
+        <v>93.1183302229428</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.24983735646821</v>
+        <v>84.23124747888519</v>
       </c>
       <c r="AD3" t="n">
-        <v>52720.29005838864</v>
+        <v>68056.81023857126</v>
       </c>
       <c r="AE3" t="n">
-        <v>72134.22671290912</v>
+        <v>93118.33022294281</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.978976033162888e-06</v>
+        <v>1.559195321286694e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.579166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>65249.83735646821</v>
+        <v>84231.2474788852</v>
       </c>
     </row>
   </sheetData>
@@ -18630,28 +18630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.07938841493215</v>
+        <v>71.57764938724077</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.09853739417592</v>
+        <v>97.93569767461074</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.64492259727939</v>
+        <v>88.58885214218515</v>
       </c>
       <c r="AD2" t="n">
-        <v>57079.38841493215</v>
+        <v>71577.64938724077</v>
       </c>
       <c r="AE2" t="n">
-        <v>78098.53739417592</v>
+        <v>97935.69767461074</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.375262538745381e-06</v>
+        <v>1.527864160089885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.089583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70644.92259727939</v>
+        <v>88588.85214218515</v>
       </c>
     </row>
   </sheetData>
@@ -18927,28 +18927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.5214768880273</v>
+        <v>155.4130638056905</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.5852428792874</v>
+        <v>212.6430102393292</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.5413179449008</v>
+        <v>192.3486597884877</v>
       </c>
       <c r="AD2" t="n">
-        <v>130521.4768880273</v>
+        <v>155413.0638056905</v>
       </c>
       <c r="AE2" t="n">
-        <v>178585.2428792874</v>
+        <v>212643.0102393292</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.56654539876291e-06</v>
+        <v>8.223907321004721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.758333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161541.3179449007</v>
+        <v>192348.6597884877</v>
       </c>
     </row>
     <row r="3">
@@ -19033,28 +19033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.55478974731442</v>
+        <v>89.14918102575658</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.27266422365307</v>
+        <v>121.9778424636809</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.79822048023165</v>
+        <v>110.3364483759563</v>
       </c>
       <c r="AD3" t="n">
-        <v>72554.78974731441</v>
+        <v>89149.18102575658</v>
       </c>
       <c r="AE3" t="n">
-        <v>99272.66422365306</v>
+        <v>121977.8424636809</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.160019780169573e-06</v>
+        <v>1.205545658975378e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.929166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89798.22048023166</v>
+        <v>110336.4483759563</v>
       </c>
     </row>
     <row r="4">
@@ -19139,28 +19139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.72406679869718</v>
+        <v>81.31845807713934</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.55832361824571</v>
+        <v>111.2635018582736</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.10644150452946</v>
+        <v>100.6446694002541</v>
       </c>
       <c r="AD4" t="n">
-        <v>64724.06679869717</v>
+        <v>81318.45807713934</v>
       </c>
       <c r="AE4" t="n">
-        <v>88558.3236182457</v>
+        <v>111263.5018582736</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.046155583344948e-06</v>
+        <v>1.336461661578319e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.543750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>80106.44150452946</v>
+        <v>100644.6694002541</v>
       </c>
     </row>
     <row r="5">
@@ -19245,28 +19245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.68240355767401</v>
+        <v>77.10620263552399</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.02834166628257</v>
+        <v>105.5001081314636</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.10423326868154</v>
+        <v>95.43132588175513</v>
       </c>
       <c r="AD5" t="n">
-        <v>60682.40355767401</v>
+        <v>77106.20263552398</v>
       </c>
       <c r="AE5" t="n">
-        <v>83028.34166628258</v>
+        <v>105500.1081314636</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.513765707646037e-06</v>
+        <v>1.405545483754103e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.36875</v>
       </c>
       <c r="AH5" t="n">
-        <v>75104.23326868154</v>
+        <v>95431.32588175513</v>
       </c>
     </row>
     <row r="6">
@@ -19351,28 +19351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.3989771060684</v>
+        <v>76.82277618391836</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.64054509130338</v>
+        <v>105.1123115564844</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.75344745454233</v>
+        <v>95.08054006761591</v>
       </c>
       <c r="AD6" t="n">
-        <v>60398.9771060684</v>
+        <v>76822.77618391837</v>
       </c>
       <c r="AE6" t="n">
-        <v>82640.54509130339</v>
+        <v>105112.3115564844</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.55238701110098e-06</v>
+        <v>1.411251320992051e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.35625</v>
       </c>
       <c r="AH6" t="n">
-        <v>74753.44745454233</v>
+        <v>95080.54006761592</v>
       </c>
     </row>
   </sheetData>
@@ -19648,28 +19648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.6647098836884</v>
+        <v>225.251747914359</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.190064648058</v>
+        <v>308.1993789020537</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.1171883027912</v>
+        <v>278.785262740278</v>
       </c>
       <c r="AD2" t="n">
-        <v>199664.7098836884</v>
+        <v>225251.747914359</v>
       </c>
       <c r="AE2" t="n">
-        <v>273190.064648058</v>
+        <v>308199.3789020537</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.330483812023345e-06</v>
+        <v>6.288594414502456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.133333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>247117.1883027912</v>
+        <v>278785.262740278</v>
       </c>
     </row>
     <row r="3">
@@ -19754,28 +19754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.49328587723315</v>
+        <v>111.4660002126256</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2898824867341</v>
+        <v>152.5126990237164</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.9506375617242</v>
+        <v>137.957101081852</v>
       </c>
       <c r="AD3" t="n">
-        <v>94493.28587723315</v>
+        <v>111466.0002126256</v>
       </c>
       <c r="AE3" t="n">
-        <v>129289.8824867341</v>
+        <v>152512.6990237164</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.195429652464181e-06</v>
+        <v>1.044897999544529e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.29375</v>
       </c>
       <c r="AH3" t="n">
-        <v>116950.6375617242</v>
+        <v>137957.101081852</v>
       </c>
     </row>
     <row r="4">
@@ -19860,28 +19860,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.34111922151911</v>
+        <v>91.39908490293217</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.7167990175532</v>
+        <v>125.0562602071848</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.00909047976744</v>
+        <v>113.1210662506075</v>
       </c>
       <c r="AD4" t="n">
-        <v>74341.11922151911</v>
+        <v>91399.08490293217</v>
       </c>
       <c r="AE4" t="n">
-        <v>101716.7990175532</v>
+        <v>125056.2602071848</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.208732616627967e-06</v>
+        <v>1.192046716344878e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>92009.09047976743</v>
+        <v>113121.0662506075</v>
       </c>
     </row>
     <row r="5">
@@ -19966,28 +19966,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.44633758996619</v>
+        <v>86.50430327137924</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.01954284674072</v>
+        <v>118.3590040363723</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.95101103823711</v>
+        <v>107.0629868090772</v>
       </c>
       <c r="AD5" t="n">
-        <v>69446.33758996619</v>
+        <v>86504.30327137925</v>
       </c>
       <c r="AE5" t="n">
-        <v>95019.54284674072</v>
+        <v>118359.0040363723</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.720277133216357e-06</v>
+        <v>1.266331626055326e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>85951.01103823711</v>
+        <v>107062.9868090772</v>
       </c>
     </row>
     <row r="6">
@@ -20072,28 +20072,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.33353982872624</v>
+        <v>83.2209133095471</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.76047562286918</v>
+        <v>113.8665250376539</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.09842321257213</v>
+        <v>102.9992637007612</v>
       </c>
       <c r="AD6" t="n">
-        <v>66333.53982872625</v>
+        <v>83220.9133095471</v>
       </c>
       <c r="AE6" t="n">
-        <v>90760.47562286918</v>
+        <v>113866.5250376539</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.010893728147734e-06</v>
+        <v>1.308534067514015e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.427083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>82098.42321257213</v>
+        <v>102999.2637007612</v>
       </c>
     </row>
     <row r="7">
@@ -20178,28 +20178,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.33560319210343</v>
+        <v>81.22297667292429</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.02681057389961</v>
+        <v>111.1328599886843</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.62565531915234</v>
+        <v>100.5264958073414</v>
       </c>
       <c r="AD7" t="n">
-        <v>64335.60319210343</v>
+        <v>81222.97667292428</v>
       </c>
       <c r="AE7" t="n">
-        <v>88026.81057389961</v>
+        <v>111132.8599886843</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.19920141976143e-06</v>
+        <v>1.335879527030615e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.358333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>79625.65531915234</v>
+        <v>100526.4958073414</v>
       </c>
     </row>
     <row r="8">
@@ -20284,28 +20284,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.31976058881453</v>
+        <v>81.20713406963539</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.00513402515341</v>
+        <v>111.1111834399381</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.60604754979526</v>
+        <v>100.5068880379843</v>
       </c>
       <c r="AD8" t="n">
-        <v>64319.76058881453</v>
+        <v>81207.13406963539</v>
       </c>
       <c r="AE8" t="n">
-        <v>88005.13402515341</v>
+        <v>111111.1834399381</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.205577191997169e-06</v>
+        <v>1.33680539691976e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.35625</v>
       </c>
       <c r="AH8" t="n">
-        <v>79606.04754979526</v>
+        <v>100506.8880379843</v>
       </c>
     </row>
   </sheetData>
@@ -20581,28 +20581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.29245781991539</v>
+        <v>77.5541088761268</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.02182423714686</v>
+        <v>106.1129532100848</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.67096943278045</v>
+        <v>95.98568188620636</v>
       </c>
       <c r="AD2" t="n">
-        <v>56292.45781991539</v>
+        <v>77554.1088761268</v>
       </c>
       <c r="AE2" t="n">
-        <v>77021.82423714687</v>
+        <v>106112.9532100848</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.514096832466457e-06</v>
+        <v>1.419249215799052e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>69670.96943278045</v>
+        <v>95985.68188620637</v>
       </c>
     </row>
   </sheetData>
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.62978671801118</v>
+        <v>98.60020952421432</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.0577195564502</v>
+        <v>134.9091566052148</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.2676494795177</v>
+        <v>122.0336160450397</v>
       </c>
       <c r="AD2" t="n">
-        <v>82629.78671801118</v>
+        <v>98600.20952421433</v>
       </c>
       <c r="AE2" t="n">
-        <v>113057.7195564502</v>
+        <v>134909.1566052148</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.53530341762581e-06</v>
+        <v>1.146802816796795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.514583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102267.6494795177</v>
+        <v>122033.6160450397</v>
       </c>
     </row>
     <row r="3">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.99926401977545</v>
+        <v>72.88434597140699</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.98890766188373</v>
+        <v>99.72357758845079</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.54575577277085</v>
+        <v>90.20609930635409</v>
       </c>
       <c r="AD3" t="n">
-        <v>56999.26401977545</v>
+        <v>72884.34597140699</v>
       </c>
       <c r="AE3" t="n">
-        <v>77988.90766188373</v>
+        <v>99723.57758845079</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.705067124933244e-06</v>
+        <v>1.477020592169087e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.50625</v>
       </c>
       <c r="AH3" t="n">
-        <v>70545.75577277085</v>
+        <v>90206.0993063541</v>
       </c>
     </row>
     <row r="4">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.74768872377588</v>
+        <v>71.46217847481522</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.27644712629285</v>
+        <v>97.77770527801304</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.99673006724278</v>
+        <v>88.44593831817497</v>
       </c>
       <c r="AD4" t="n">
-        <v>55747.68872377588</v>
+        <v>71462.17847481521</v>
       </c>
       <c r="AE4" t="n">
-        <v>76276.44712629286</v>
+        <v>97777.70527801305</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.89727092439895e-06</v>
+        <v>1.506272215681782e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>68996.73006724278</v>
+        <v>88445.93831817497</v>
       </c>
     </row>
   </sheetData>
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3299962369536</v>
+        <v>128.6625280515669</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.6948565010159</v>
+        <v>176.0417470702089</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.0264351086869</v>
+        <v>159.2405698060211</v>
       </c>
       <c r="AD2" t="n">
-        <v>112329.9962369537</v>
+        <v>128662.5280515669</v>
       </c>
       <c r="AE2" t="n">
-        <v>153694.8565010159</v>
+        <v>176041.7470702089</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.281044936487574e-06</v>
+        <v>9.377039155310965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.214583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>139026.4351086869</v>
+        <v>159240.5698060211</v>
       </c>
     </row>
     <row r="3">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.30758492876268</v>
+        <v>82.64002723482484</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.72496298368968</v>
+        <v>113.0717310833343</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.0662998498336</v>
+        <v>102.2803237659413</v>
       </c>
       <c r="AD3" t="n">
-        <v>66307.58492876268</v>
+        <v>82640.02723482484</v>
       </c>
       <c r="AE3" t="n">
-        <v>90724.96298368968</v>
+        <v>113071.7310833343</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713751026657091e-06</v>
+        <v>1.300885209273591e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.758333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82066.29984983359</v>
+        <v>102280.3237659413</v>
       </c>
     </row>
     <row r="4">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.65516156073051</v>
+        <v>75.81701166620047</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.62282384734669</v>
+        <v>103.7361801721445</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.83285609772778</v>
+        <v>93.83574473118446</v>
       </c>
       <c r="AD4" t="n">
-        <v>59655.16156073051</v>
+        <v>75817.01166620047</v>
       </c>
       <c r="AE4" t="n">
-        <v>81622.82384734669</v>
+        <v>103736.1801721445</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.564168349847611e-06</v>
+        <v>1.427844920890805e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>73832.85609772778</v>
+        <v>93835.74473118446</v>
       </c>
     </row>
     <row r="5">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.70130780132639</v>
+        <v>74.86315790679635</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.3177190526727</v>
+        <v>102.4310753774705</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.65230867293099</v>
+        <v>92.65519730638765</v>
       </c>
       <c r="AD5" t="n">
-        <v>58701.30780132639</v>
+        <v>74863.15790679635</v>
       </c>
       <c r="AE5" t="n">
-        <v>80317.71905267271</v>
+        <v>102431.0753774705</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.678154772349577e-06</v>
+        <v>1.444862075803447e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>72652.30867293099</v>
+        <v>92655.19730638765</v>
       </c>
     </row>
   </sheetData>
